--- a/script_BD/Ingreso_Masivo_Original.xlsx
+++ b/script_BD/Ingreso_Masivo_Original.xlsx
@@ -5,16 +5,16 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCM\Documents\GitHub\SOGIP_v2\script_BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="CjNB5EHzYRiE6XZ0OX+OA8RQ6tIPQ7QTebgnbpxww4SnxMhMRx5h8Ubwu++Y3vVzh9bai9t14pNFxtzFg6vMDQ==" workbookSaltValue="Q43VkG9gS3QxaA/qvkDAaw==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="R5XEzSr0SXOS8oMbq3VzahA0A2pYrcpTPOHRNG5GWaHwCBqPmsMi0lmMHGd3CsS1uXYd1qZ4mxw/Rndawv3Brw==" workbookSaltValue="arjJ34OATh1gjo7rrcfR5w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Explicación General" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos de Usuarios a Importar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -720,7 +720,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -922,6 +922,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1554,7 +1558,7 @@
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
     </row>
@@ -1799,8 +1803,8 @@
       <c r="C27" s="58"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bMLLQUBV2SfNnJ+0B4Jp7NviHBcZWGFIKtAMilqXhzZsqftQhZrZtVUSo9aixXF7ifiJ29lM9fnmXrHQQXXkCw==" saltValue="Eyco3vp2/I/Yqnh0grsbrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <dataValidations xWindow="101" yWindow="408" count="6">
+  <sheetProtection algorithmName="SHA-512" hashValue="cfNZLtBgJt36see4iqRnqP64P6XwYj9uEAPyRSig/25g7/5Sfjevlcuxkkm65ORtn16682PTsWkHnWyiVeWR9g==" saltValue="A/qoiqdK7u2OMz5GWzJ3pg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations disablePrompts="1" xWindow="101" yWindow="408" count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formato incorrecto" error="Formato de fecha incorrecto o fecha se encuentra fuera de los rangos permitidos. _x000a_Edad mínima: 10 años._x000a_Edad máxima: 80 años." promptTitle="Formato de fecha (dd/mm/aaaa)" prompt="Formato de fecha aceptada es día/mes/año._x000a_La edad mínima dentro del sistema es de 10 años y la máxima es de 80 años." sqref="F1:F1048576">
       <formula1 xml:space="preserve"> TODAY()-29200</formula1>
       <formula2 xml:space="preserve"> TODAY()-3650</formula2>
@@ -1820,7 +1824,7 @@
       <formula1>9</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Operación anulada, intente de nuevo cumpliendo los parámetros establecidos." promptTitle="Correo electrónico" prompt="Este valor (correo electrónico) es obligatorio en nuestro sistema, favor no dejarlo en blanco o el usuario no será creado. Además, este campo debe tener más de 4 carácteres." sqref="G1:G1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Operación anulada, intente de nuevo cumpliendo los parámetros establecidos." promptTitle="Correo electrónico" prompt="Este valor (correo electrónico) es obligatorio en nuestro sistema, favor no dejarlo en blanco o el usuario no será creado. Además, este campo debe tener más de 4 carácteres." sqref="G1:G1048576">
       <formula1>4</formula1>
       <formula2>30</formula2>
     </dataValidation>
